--- a/MachineLearning/Kaggle/HousePrice/与售价关联性.xlsx
+++ b/MachineLearning/Kaggle/HousePrice/与售价关联性.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>关联程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,30 @@
   </si>
   <si>
     <t>重塑日期（如果没有改造或添加，则与施工日期相同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireplaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KitchenAbvGr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转成1和0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentralAir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转成CentralAir_Y和CentralAir_N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,6 +623,32 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
